--- a/data/trans_orig/P33_1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33_1_2023-Provincia-trans_orig.xlsx
@@ -556,7 +556,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,11</t>
+          <t>7,16</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,01</t>
+          <t>7,04</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,96; 7,27</t>
+          <t>7,0; 7,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,81; 7,02</t>
+          <t>6,81; 7,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,92; 7,11</t>
+          <t>6,94; 7,15</t>
         </is>
       </c>
     </row>
@@ -606,12 +606,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,21</t>
+          <t>7,22</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,26</t>
+          <t>7,27</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,08; 7,34</t>
+          <t>7,09; 7,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,08</t>
+          <t>7,09</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,91</t>
+          <t>6,92</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,99</t>
+          <t>7,0</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,94; 7,2</t>
+          <t>6,95; 7,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,81; 7,02</t>
+          <t>6,81; 7,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,91; 7,07</t>
+          <t>6,91; 7,08</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,03</t>
+          <t>7,04</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,89</t>
+          <t>6,91</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,95</t>
+          <t>6,96</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,87; 7,2</t>
+          <t>6,87; 7,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,76; 7,02</t>
+          <t>6,8; 7,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,85; 7,05</t>
+          <t>6,86; 7,05</t>
         </is>
       </c>
     </row>
@@ -761,12 +761,12 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,58</t>
+          <t>6,57</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,68</t>
+          <t>6,67</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,67; 6,92</t>
+          <t>6,67; 6,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,48; 6,71</t>
+          <t>6,48; 6,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,6; 6,76</t>
+          <t>6,59; 6,75</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7,01</t>
+          <t>7,02</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,91</t>
+          <t>6,92</t>
         </is>
       </c>
     </row>
@@ -829,7 +829,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,87; 7,11</t>
+          <t>6,88; 7,12</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -839,7 +839,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,82; 7,0</t>
+          <t>6,83; 7,0</t>
         </is>
       </c>
     </row>
@@ -861,12 +861,12 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,71</t>
+          <t>6,62</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,79</t>
+          <t>6,74</t>
         </is>
       </c>
     </row>
@@ -884,12 +884,12 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,44; 6,86</t>
+          <t>6,31; 6,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,58; 6,88</t>
+          <t>6,45; 6,88</t>
         </is>
       </c>
     </row>
@@ -906,17 +906,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>7,57</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>7,32</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>7,46</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>7,33</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>7,4</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7,39; 7,58</t>
+          <t>7,4; 7,8</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>7,28; 7,39</t>
+          <t>7,26; 7,37</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>7,35; 7,46</t>
+          <t>7,36; 7,69</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>7,14</t>
+          <t>7,18</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>6,98</t>
+          <t>6,94</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>7,05</t>
+          <t>7,06</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>7,09; 7,19</t>
+          <t>7,1; 7,42</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>6,87; 7,03</t>
+          <t>6,75; 7,01</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>7,0; 7,09</t>
+          <t>6,98; 7,15</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/P33_1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33_1_2023-Provincia-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -584,19 +584,19 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,81; 7,03</t>
+          <t>6,78; 7,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,94; 7,15</t>
+          <t>6,95; 7,16</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,09; 7,35</t>
+          <t>7,1; 7,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,17; 7,38</t>
+          <t>7,16; 7,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,17; 7,33</t>
+          <t>7,16; 7,33</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,95; 7,22</t>
+          <t>6,96; 7,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,81; 7,03</t>
+          <t>6,78; 7,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,91; 7,08</t>
+          <t>6,92; 7,09</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,87; 7,21</t>
+          <t>6,89; 7,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,8; 7,02</t>
+          <t>6,79; 7,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,86; 7,05</t>
+          <t>6,87; 7,06</t>
         </is>
       </c>
     </row>
@@ -779,24 +779,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,67; 6,91</t>
+          <t>6,67; 6,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,48; 6,69</t>
+          <t>6,48; 6,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,59; 6,75</t>
+          <t>6,59; 6,76</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -829,24 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,88; 7,12</t>
+          <t>6,89; 7,12</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,69; 6,95</t>
+          <t>6,69; 6,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,83; 7,0</t>
+          <t>6,84; 7,0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,78; 7,0</t>
+          <t>6,77; 7,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,31; 6,85</t>
+          <t>6,3; 6,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,45; 6,88</t>
+          <t>6,48; 6,88</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7,4; 7,8</t>
+          <t>7,4; 7,82</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>7,26; 7,37</t>
+          <t>7,27; 7,37</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>7,36; 7,69</t>
+          <t>7,36; 7,68</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>7,1; 7,42</t>
+          <t>7,1; 7,37</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>6,75; 7,01</t>
+          <t>6,77; 7,01</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>6,98; 7,15</t>
+          <t>6,97; 7,14</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/P33_1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33_1_2023-Provincia-trans_orig.xlsx
@@ -497,7 +497,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según las horas que duerme habitualmente al día y entre semana</t>
+          <t>Número medio de horas que duerme habitualmente al día entre semana</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
